--- a/Examples/AcPowerSystem/IEEE_57Bus/IEEE_57Bus.xlsx
+++ b/Examples/AcPowerSystem/IEEE_57Bus/IEEE_57Bus.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\AcPowerSystem\IEEE_57Bus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232C7907-EBA6-494B-A32D-96287B95407D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF27A217-DA78-4F60-B41D-FA10B1728BDC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
-    <sheet name="Device" sheetId="3" r:id="rId2"/>
+    <sheet name="Apparatus" sheetId="3" r:id="rId2"/>
     <sheet name="Basic" sheetId="4" r:id="rId3"/>
     <sheet name="NetworkLine" sheetId="2" r:id="rId4"/>
     <sheet name="NetworkLine_IEEE" sheetId="5" r:id="rId5"/>
@@ -68,10 +68,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>This sheet summarizes the devices connected to buses.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>This sheet summarizes the parameters for network line impedance in IEEE form.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -121,14 +117,6 @@
   </si>
   <si>
     <t>Bus number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Device type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Device parameters</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -235,6 +223,18 @@
   </si>
   <si>
     <t>AC or DC</t>
+  </si>
+  <si>
+    <t>Apparatus type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apparatus parameters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This sheet summarizes the apparatuses connected to buses.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -638,40 +638,40 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="K2" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
@@ -2851,8 +2851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2875,18 +2875,18 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
@@ -3511,7 +3511,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
@@ -3525,7 +3525,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2">
         <v>60</v>
@@ -3533,7 +3533,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -3541,7 +3541,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -3575,10 +3575,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
@@ -3593,7 +3593,7 @@
         <v>3</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -3619,12 +3619,12 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
@@ -3634,30 +3634,30 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
@@ -5508,10 +5508,10 @@
         <v>18</v>
       </c>
       <c r="C86" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D86" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E86">
         <v>0.1</v>
@@ -5531,10 +5531,10 @@
         <v>25</v>
       </c>
       <c r="C87" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D87" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E87">
         <v>5.8999999999999997E-2</v>
@@ -5554,10 +5554,10 @@
         <v>53</v>
       </c>
       <c r="C88" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D88" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E88">
         <v>6.3E-2</v>
@@ -5580,7 +5580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFCB373-2341-40B6-A375-7BA50357479A}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -5591,21 +5591,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -5613,7 +5613,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -5621,7 +5621,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -5629,7 +5629,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -5637,7 +5637,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -5645,7 +5645,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -5653,7 +5653,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -5661,7 +5661,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -5669,7 +5669,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -5677,7 +5677,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B12">
         <v>0</v>

--- a/Examples/AcPowerSystem/IEEE_57Bus/IEEE_57Bus.xlsx
+++ b/Examples/AcPowerSystem/IEEE_57Bus/IEEE_57Bus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\AcPowerSystem\IEEE_57Bus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Git\Simplex-Power-Systems\Examples\AcPowerSystem\IEEE_57Bus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF27A217-DA78-4F60-B41D-FA10B1728BDC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613D3B11-4D63-44A4-A324-1CAFBB4A5926}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -242,20 +242,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.00_ "/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -264,7 +264,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -272,7 +272,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -280,7 +280,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -288,13 +288,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -328,16 +328,16 @@
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -624,19 +624,19 @@
       <selection activeCell="K3" sqref="K3:L59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="11.19921875" customWidth="1"/>
-    <col min="9" max="9" width="10.796875" customWidth="1"/>
-    <col min="10" max="10" width="11.1328125" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
@@ -674,7 +674,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -712,7 +712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -750,7 +750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -788,7 +788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -864,7 +864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -902,7 +902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -940,7 +940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -978,7 +978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12">
       <c r="A15" s="8">
         <v>13</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12">
       <c r="A16" s="8">
         <v>14</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12">
       <c r="A17" s="8">
         <v>15</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12">
       <c r="A18" s="8">
         <v>16</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12">
       <c r="A19" s="8">
         <v>17</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12">
       <c r="A20" s="8">
         <v>18</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12">
       <c r="A21" s="8">
         <v>19</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12">
       <c r="A22" s="8">
         <v>20</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12">
       <c r="A23" s="8">
         <v>21</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12">
       <c r="A24" s="8">
         <v>22</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12">
       <c r="A25" s="8">
         <v>23</v>
       </c>
@@ -1548,7 +1548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12">
       <c r="A26" s="8">
         <v>24</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:12">
       <c r="A27" s="8">
         <v>25</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12">
       <c r="A28" s="8">
         <v>26</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12">
       <c r="A29" s="8">
         <v>27</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:12">
       <c r="A30" s="8">
         <v>28</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:12">
       <c r="A31" s="8">
         <v>29</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:12">
       <c r="A32" s="8">
         <v>30</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:12">
       <c r="A33" s="6">
         <v>31</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:12">
       <c r="A34" s="6">
         <v>32</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:12">
       <c r="A35" s="6">
         <v>33</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:12">
       <c r="A36" s="6">
         <v>34</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:12">
       <c r="A37" s="6">
         <v>35</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:12">
       <c r="A38" s="6">
         <v>36</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:12">
       <c r="A39" s="6">
         <v>37</v>
       </c>
@@ -2080,7 +2080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:12">
       <c r="A40" s="6">
         <v>38</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:12">
       <c r="A41" s="6">
         <v>39</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:12">
       <c r="A42" s="6">
         <v>40</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:12">
       <c r="A43" s="6">
         <v>41</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:12">
       <c r="A44" s="6">
         <v>42</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:12">
       <c r="A45" s="6">
         <v>43</v>
       </c>
@@ -2308,7 +2308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:12">
       <c r="A46" s="6">
         <v>44</v>
       </c>
@@ -2346,7 +2346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:12">
       <c r="A47" s="6">
         <v>45</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:12">
       <c r="A48" s="6">
         <v>46</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:12">
       <c r="A49" s="6">
         <v>47</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:12">
       <c r="A50" s="6">
         <v>48</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:12">
       <c r="A51" s="6">
         <v>49</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:12">
       <c r="A52" s="6">
         <v>50</v>
       </c>
@@ -2574,7 +2574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:12">
       <c r="A53" s="6">
         <v>51</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:12">
       <c r="A54" s="6">
         <v>52</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:12">
       <c r="A55" s="6">
         <v>53</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:12">
       <c r="A56" s="6">
         <v>54</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:12">
       <c r="A57" s="6">
         <v>55</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:12">
       <c r="A58" s="6">
         <v>56</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:12">
       <c r="A59" s="6">
         <v>57</v>
       </c>
@@ -2851,34 +2851,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.796875" customWidth="1"/>
-    <col min="2" max="2" width="29.53125" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="15.19921875" customWidth="1"/>
-    <col min="5" max="5" width="12.46484375" customWidth="1"/>
-    <col min="6" max="6" width="13.53125" customWidth="1"/>
-    <col min="7" max="7" width="13.796875" customWidth="1"/>
-    <col min="8" max="8" width="15.1328125" customWidth="1"/>
-    <col min="9" max="9" width="18.796875" customWidth="1"/>
-    <col min="10" max="10" width="18.53125" customWidth="1"/>
-    <col min="11" max="11" width="17.1328125" customWidth="1"/>
-    <col min="12" max="12" width="17.86328125" customWidth="1"/>
-    <col min="13" max="13" width="14.46484375" customWidth="1"/>
-    <col min="14" max="14" width="13.1328125" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -2913,7 +2913,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -2937,7 +2937,7 @@
       <c r="I4" s="7"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -2960,7 +2960,7 @@
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -2975,7 +2975,7 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -2990,7 +2990,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -3013,7 +3013,7 @@
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -3028,7 +3028,7 @@
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -3051,7 +3051,7 @@
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -3074,7 +3074,7 @@
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -3087,7 +3087,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -3100,7 +3100,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -3121,7 +3121,7 @@
       </c>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10">
       <c r="A15" s="8">
         <v>13</v>
       </c>
@@ -3134,7 +3134,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10">
       <c r="A16" s="8">
         <v>14</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2">
       <c r="A17" s="8">
         <v>15</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2">
       <c r="A18" s="8">
         <v>16</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2">
       <c r="A19" s="8">
         <v>17</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2">
       <c r="A20" s="8">
         <v>18</v>
       </c>
@@ -3174,7 +3174,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2">
       <c r="A21" s="8">
         <v>19</v>
       </c>
@@ -3182,7 +3182,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2">
       <c r="A22" s="8">
         <v>20</v>
       </c>
@@ -3190,7 +3190,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2">
       <c r="A23" s="8">
         <v>21</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:2">
       <c r="A24" s="8">
         <v>22</v>
       </c>
@@ -3206,7 +3206,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:2">
       <c r="A25" s="8">
         <v>23</v>
       </c>
@@ -3214,7 +3214,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:2">
       <c r="A26" s="8">
         <v>24</v>
       </c>
@@ -3222,7 +3222,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:2">
       <c r="A27" s="8">
         <v>25</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:2">
       <c r="A28" s="8">
         <v>26</v>
       </c>
@@ -3238,7 +3238,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:2">
       <c r="A29" s="8">
         <v>27</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:2">
       <c r="A30" s="8">
         <v>28</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:2">
       <c r="A31" s="8">
         <v>29</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:2">
       <c r="A32" s="8">
         <v>30</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -3278,7 +3278,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:2">
       <c r="A36">
         <v>34</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:2">
       <c r="A37">
         <v>35</v>
       </c>
@@ -3310,7 +3310,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:2">
       <c r="A38">
         <v>36</v>
       </c>
@@ -3318,7 +3318,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:2">
       <c r="A39">
         <v>37</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:2">
       <c r="A40">
         <v>38</v>
       </c>
@@ -3334,7 +3334,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:2">
       <c r="A41">
         <v>39</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:2">
       <c r="A42">
         <v>40</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:2">
       <c r="A43">
         <v>41</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:2">
       <c r="A44">
         <v>42</v>
       </c>
@@ -3366,7 +3366,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:2">
       <c r="A45">
         <v>43</v>
       </c>
@@ -3374,7 +3374,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:2">
       <c r="A46">
         <v>44</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:2">
       <c r="A47">
         <v>45</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:2">
       <c r="A48">
         <v>46</v>
       </c>
@@ -3398,7 +3398,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:2">
       <c r="A49">
         <v>47</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:2">
       <c r="A50">
         <v>48</v>
       </c>
@@ -3414,7 +3414,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:2">
       <c r="A51">
         <v>49</v>
       </c>
@@ -3422,7 +3422,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:2">
       <c r="A52">
         <v>50</v>
       </c>
@@ -3430,7 +3430,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:2">
       <c r="A53">
         <v>51</v>
       </c>
@@ -3438,7 +3438,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:2">
       <c r="A54">
         <v>52</v>
       </c>
@@ -3446,7 +3446,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:2">
       <c r="A55">
         <v>53</v>
       </c>
@@ -3454,7 +3454,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:2">
       <c r="A56">
         <v>54</v>
       </c>
@@ -3462,7 +3462,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:2">
       <c r="A57">
         <v>55</v>
       </c>
@@ -3470,7 +3470,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:2">
       <c r="A58">
         <v>56</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:2">
       <c r="A59">
         <v>57</v>
       </c>
@@ -3501,20 +3501,20 @@
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="18.53125" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="15.796875" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -3523,7 +3523,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -3531,7 +3531,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -3562,18 +3562,18 @@
       <selection activeCell="A3" sqref="A3:G82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="7" max="7" width="14.86328125" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>35</v>
       </c>
@@ -3607,37 +3607,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D00B5E-E2E7-41B8-8388-8931D474EA96}">
   <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="E90" sqref="E90"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="H88" sqref="H88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.53125" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7">
       <c r="A3" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
         <v>35</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>1</v>
       </c>
@@ -3683,7 +3683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>2</v>
       </c>
@@ -3706,7 +3706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>3</v>
       </c>
@@ -3729,7 +3729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>4</v>
       </c>
@@ -3752,7 +3752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>4</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>6</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>6</v>
       </c>
@@ -3821,7 +3821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>8</v>
       </c>
@@ -3844,7 +3844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>9</v>
       </c>
@@ -3867,7 +3867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>9</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>9</v>
       </c>
@@ -3913,7 +3913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>9</v>
       </c>
@@ -3936,7 +3936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>13</v>
       </c>
@@ -3959,7 +3959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>13</v>
       </c>
@@ -3982,7 +3982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>1</v>
       </c>
@@ -4005,7 +4005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>1</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>1</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>3</v>
       </c>
@@ -4074,7 +4074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>4</v>
       </c>
@@ -4097,7 +4097,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>4</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>0.97799999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>5</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>7</v>
       </c>
@@ -4166,7 +4166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>10</v>
       </c>
@@ -4189,7 +4189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>11</v>
       </c>
@@ -4212,7 +4212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>12</v>
       </c>
@@ -4235,7 +4235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>12</v>
       </c>
@@ -4258,7 +4258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>12</v>
       </c>
@@ -4281,7 +4281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>14</v>
       </c>
@@ -4304,7 +4304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>18</v>
       </c>
@@ -4327,7 +4327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>19</v>
       </c>
@@ -4350,7 +4350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>21</v>
       </c>
@@ -4373,7 +4373,7 @@
         <v>1.0429999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>21</v>
       </c>
@@ -4396,7 +4396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7">
       <c r="A38">
         <v>22</v>
       </c>
@@ -4419,7 +4419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>23</v>
       </c>
@@ -4442,7 +4442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7">
       <c r="A40">
         <v>24</v>
       </c>
@@ -4465,7 +4465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7">
       <c r="A41">
         <v>24</v>
       </c>
@@ -4488,7 +4488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7">
       <c r="A42">
         <v>24</v>
       </c>
@@ -4511,7 +4511,7 @@
         <v>1.0429999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7">
       <c r="A43">
         <v>26</v>
       </c>
@@ -4534,7 +4534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7">
       <c r="A44">
         <v>27</v>
       </c>
@@ -4557,7 +4557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7">
       <c r="A45">
         <v>28</v>
       </c>
@@ -4580,7 +4580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7">
       <c r="A46">
         <v>7</v>
       </c>
@@ -4603,7 +4603,7 @@
         <v>0.96699999999999997</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7">
       <c r="A47">
         <v>25</v>
       </c>
@@ -4626,7 +4626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7">
       <c r="A48">
         <v>30</v>
       </c>
@@ -4649,7 +4649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:7">
       <c r="A49">
         <v>31</v>
       </c>
@@ -4672,7 +4672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:7">
       <c r="A50">
         <v>32</v>
       </c>
@@ -4695,7 +4695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:7">
       <c r="A51">
         <v>34</v>
       </c>
@@ -4718,7 +4718,7 @@
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:7">
       <c r="A52">
         <v>34</v>
       </c>
@@ -4741,7 +4741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:7">
       <c r="A53">
         <v>35</v>
       </c>
@@ -4764,7 +4764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:7">
       <c r="A54">
         <v>36</v>
       </c>
@@ -4787,7 +4787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:7">
       <c r="A55">
         <v>37</v>
       </c>
@@ -4810,7 +4810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:7">
       <c r="A56">
         <v>37</v>
       </c>
@@ -4833,7 +4833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:7">
       <c r="A57">
         <v>36</v>
       </c>
@@ -4856,7 +4856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:7">
       <c r="A58">
         <v>22</v>
       </c>
@@ -4879,7 +4879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:7">
       <c r="A59">
         <v>11</v>
       </c>
@@ -4902,7 +4902,7 @@
         <v>0.95499999999999996</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:7">
       <c r="A60">
         <v>41</v>
       </c>
@@ -4925,7 +4925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:7">
       <c r="A61">
         <v>41</v>
       </c>
@@ -4948,7 +4948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:7">
       <c r="A62">
         <v>38</v>
       </c>
@@ -4971,7 +4971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:7">
       <c r="A63">
         <v>15</v>
       </c>
@@ -4994,7 +4994,7 @@
         <v>0.95499999999999996</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:7">
       <c r="A64">
         <v>14</v>
       </c>
@@ -5017,7 +5017,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:7">
       <c r="A65">
         <v>46</v>
       </c>
@@ -5040,7 +5040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:7">
       <c r="A66">
         <v>47</v>
       </c>
@@ -5063,7 +5063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:7">
       <c r="A67">
         <v>48</v>
       </c>
@@ -5086,7 +5086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:7">
       <c r="A68">
         <v>49</v>
       </c>
@@ -5109,7 +5109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:7">
       <c r="A69">
         <v>50</v>
       </c>
@@ -5132,7 +5132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:7">
       <c r="A70">
         <v>10</v>
       </c>
@@ -5155,7 +5155,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:7">
       <c r="A71">
         <v>13</v>
       </c>
@@ -5178,7 +5178,7 @@
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:7">
       <c r="A72">
         <v>29</v>
       </c>
@@ -5201,7 +5201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:7">
       <c r="A73">
         <v>52</v>
       </c>
@@ -5224,7 +5224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:7">
       <c r="A74">
         <v>53</v>
       </c>
@@ -5247,7 +5247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:7">
       <c r="A75">
         <v>54</v>
       </c>
@@ -5270,7 +5270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:7">
       <c r="A76">
         <v>11</v>
       </c>
@@ -5293,7 +5293,7 @@
         <v>0.95799999999999996</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:7">
       <c r="A77">
         <v>44</v>
       </c>
@@ -5316,7 +5316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:7">
       <c r="A78">
         <v>40</v>
       </c>
@@ -5339,7 +5339,7 @@
         <v>0.95799999999999996</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:7">
       <c r="A79">
         <v>56</v>
       </c>
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:7">
       <c r="A80">
         <v>56</v>
       </c>
@@ -5385,7 +5385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:7">
       <c r="A81">
         <v>39</v>
       </c>
@@ -5408,7 +5408,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:7">
       <c r="A82">
         <v>57</v>
       </c>
@@ -5431,7 +5431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:7">
       <c r="A83">
         <v>38</v>
       </c>
@@ -5454,7 +5454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:7">
       <c r="A84">
         <v>38</v>
       </c>
@@ -5477,7 +5477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:7">
       <c r="A85">
         <v>9</v>
       </c>
@@ -5500,7 +5500,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:7">
       <c r="A86">
         <v>18</v>
       </c>
@@ -5523,7 +5523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:7">
       <c r="A87">
         <v>25</v>
       </c>
@@ -5546,7 +5546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:7">
       <c r="A88">
         <v>53</v>
       </c>
@@ -5580,21 +5580,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFCB373-2341-40B6-A375-7BA50357479A}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.1328125" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>38</v>
       </c>
@@ -5603,7 +5603,7 @@
       </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -5619,7 +5619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -5627,7 +5627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -5635,7 +5635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -5643,7 +5643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -5651,7 +5651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -5659,7 +5659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -5667,7 +5667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -5675,7 +5675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>41</v>
       </c>
